--- a/dtp/gen3/resources/version_2_0_0/element_mapping.xlsx
+++ b/dtp/gen3/resources/version_2_0_0/element_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\Desktop\sparc-codathon\sparc-me\sparc_me\resources\templates\version_2_0_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\ctt_group\digital-twin-platform\dtp\gen3\resources\version_2_0_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170D718-6298-424C-A140-CA0542EF54EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99776320-9440-44C0-8C05-60CAF715CDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1644" windowWidth="16080" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="17064" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_description" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="205">
   <si>
     <t>subject_id</t>
   </si>
@@ -634,6 +634,72 @@
   </si>
   <si>
     <t>dataset_type</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Subtitle</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t>Acknowledgments</t>
+  </si>
+  <si>
+    <t>Study purpose</t>
+  </si>
+  <si>
+    <t>Study data collection</t>
+  </si>
+  <si>
+    <t>Study primary conclusion</t>
+  </si>
+  <si>
+    <t>Study organ system</t>
+  </si>
+  <si>
+    <t>Study approach</t>
+  </si>
+  <si>
+    <t>Study technique</t>
+  </si>
+  <si>
+    <t>Study collection title</t>
+  </si>
+  <si>
+    <t>Contributor name</t>
+  </si>
+  <si>
+    <t>Contributor ORCiD</t>
+  </si>
+  <si>
+    <t>Contributor affiliation</t>
+  </si>
+  <si>
+    <t>Contributor role</t>
+  </si>
+  <si>
+    <t>Identifier description</t>
+  </si>
+  <si>
+    <t>Relation type</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Identifier type</t>
+  </si>
+  <si>
+    <t>Number of subjects</t>
+  </si>
+  <si>
+    <t>Number of samples</t>
   </si>
 </sst>
 </file>
@@ -973,17 +1039,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF15833-15E3-4C5F-A498-645F4E950DA0}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A26" sqref="A26:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1183,6 +1249,190 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1201,11 +1451,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1447,16 +1697,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1630,10 +1880,10 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1772,7 +2022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -2035,13 +2285,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="157" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
